--- a/صيدليات دكتور مصطفي طلعت_2026-01-17_21-43.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-17_21-43.xlsx
@@ -56,12 +56,18 @@
     <t>ALOEKITA DS HAIR SHAMPOO 250 ML</t>
   </si>
   <si>
+    <t>ALVERINSPASM 24 S.G.CAPS.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t xml:space="preserve">BEBY RELIEF 25 MG  SUPP</t>
   </si>
   <si>
@@ -104,9 +110,6 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>CERVITAM 20 CAPS.</t>
   </si>
   <si>
@@ -260,6 +263,9 @@
     <t>HERO VITAMIN DROPS</t>
   </si>
   <si>
+    <t>HIBIOTIC 625MG 16 TAB.</t>
+  </si>
+  <si>
     <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
   </si>
   <si>
@@ -383,25 +389,22 @@
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
-    <t>TRIXOMASH 1 GM VIAL FOR I.M. INJ.</t>
+    <t>UNICTAM 750 MG I.M/I.V VIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URINEX 36 CAP </t>
+  </si>
+  <si>
+    <t>VITAMIN E 400MG 24 SOFT GELATIN CAPS.</t>
+  </si>
+  <si>
+    <t>VOLTAREN 1% EMULGEL 25 GM</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
     <t>8:0</t>
-  </si>
-  <si>
-    <t>UNICTAM 750 MG I.M/I.V VIAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URINEX 36 CAP </t>
-  </si>
-  <si>
-    <t>VITAMIN E 400MG 24 SOFT GELATIN CAPS.</t>
-  </si>
-  <si>
-    <t>VOLTAREN 1% EMULGEL 25 GM</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
     <t>VOLTAREN SR 100MG 20 F.C.TAB.</t>
@@ -1203,11 +1206,11 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>141</v>
+        <v>-37</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" ht="24.75" customHeight="1">
@@ -1215,7 +1218,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B9" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -1223,17 +1226,17 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -1249,17 +1252,17 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>219</v>
+        <v>19</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -1267,7 +1270,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B11" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1275,13 +1278,13 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>64</v>
+        <v>219</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
@@ -1301,17 +1304,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -1319,7 +1322,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1327,17 +1330,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1359,11 +1362,11 @@
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>19.899999999999999</v>
+        <v>14</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1379,17 +1382,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>55</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1397,7 +1400,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1405,17 +1408,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1423,7 +1426,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1431,17 +1434,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1449,7 +1452,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1457,7 +1460,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
@@ -1467,7 +1470,7 @@
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1483,13 +1486,13 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
@@ -1501,7 +1504,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1509,13 +1512,13 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
@@ -1535,17 +1538,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1553,7 +1556,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1561,17 +1564,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1579,7 +1582,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1587,17 +1590,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1605,7 +1608,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1613,17 +1616,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1639,17 +1642,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1657,7 +1660,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1665,17 +1668,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1683,7 +1686,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1691,17 +1694,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>144</v>
+        <v>24</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1717,17 +1720,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>11</v>
+        <v>144</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1735,7 +1738,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1743,17 +1746,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1769,17 +1772,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>228</v>
+        <v>83</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>44</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1795,17 +1798,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>60</v>
+        <v>228</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1813,7 +1816,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1821,17 +1824,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>11</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1839,7 +1842,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1847,17 +1850,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1865,7 +1868,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1873,17 +1876,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1891,7 +1894,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1899,17 +1902,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1925,17 +1928,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1951,17 +1954,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>69</v>
+        <v>172</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1977,17 +1980,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>144</v>
+        <v>69</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -2003,17 +2006,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>65</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -2021,7 +2024,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -2029,17 +2032,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>47</v>
+        <v>180</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>9</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -2061,7 +2064,7 @@
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
@@ -2081,17 +2084,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -2099,7 +2102,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -2107,17 +2110,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -2133,17 +2136,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -2159,17 +2162,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2177,7 +2180,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2185,17 +2188,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>135</v>
+        <v>4</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2211,13 +2214,13 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
@@ -2237,17 +2240,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>172</v>
+        <v>22</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2269,11 +2272,11 @@
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2289,13 +2292,13 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>66</v>
+        <v>198</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
@@ -2321,11 +2324,11 @@
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2341,17 +2344,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2373,7 +2376,7 @@
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
@@ -2393,13 +2396,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2419,13 +2422,13 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
@@ -2445,17 +2448,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>45</v>
+        <v>132.99000000000001</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>85</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2463,7 +2466,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2471,17 +2474,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>399</v>
+        <v>92</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2489,7 +2492,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2497,17 +2500,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>9</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2523,17 +2526,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>16</v>
+        <v>399</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2541,7 +2544,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2549,13 +2552,13 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
@@ -2567,7 +2570,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2575,17 +2578,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2601,13 +2604,13 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>128.25</v>
+        <v>40</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
@@ -2627,17 +2630,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2653,13 +2656,13 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>66</v>
+        <v>128.25</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
@@ -2679,17 +2682,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>390</v>
+        <v>137</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2711,7 +2714,7 @@
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>290</v>
+        <v>66</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
@@ -2731,17 +2734,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>16</v>
+        <v>390</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2757,13 +2760,13 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>31</v>
+        <v>290</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
@@ -2775,7 +2778,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2783,17 +2786,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2801,7 +2804,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2809,7 +2812,7 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
@@ -2819,7 +2822,7 @@
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2835,17 +2838,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>45.079999999999998</v>
+        <v>24</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>104</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2853,7 +2856,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2861,17 +2864,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2879,7 +2882,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2887,17 +2890,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>102</v>
+        <v>45.079999999999998</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>9</v>
+        <v>106</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2905,7 +2908,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2913,17 +2916,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2939,13 +2942,13 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
@@ -2965,17 +2968,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>7.0499999999999998</v>
+        <v>60</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2991,13 +2994,13 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
@@ -3017,17 +3020,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>15</v>
+        <v>7.0499999999999998</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -3035,7 +3038,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B79" s="7">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -3043,13 +3046,13 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
@@ -3061,7 +3064,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -3069,17 +3072,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3095,17 +3098,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>-47</v>
+        <v>130</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3121,17 +3124,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3147,17 +3150,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>125</v>
+        <v>-47</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3173,13 +3176,13 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
@@ -3199,17 +3202,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3225,17 +3228,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3251,17 +3254,17 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>258</v>
+        <v>23</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
-        <v>65</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3277,17 +3280,17 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3303,17 +3306,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>96</v>
+        <v>258</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
-        <v>31</v>
+        <v>66</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3321,7 +3324,7 @@
         <v>87</v>
       </c>
       <c t="s" r="B90" s="7">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -3329,17 +3332,17 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>156</v>
+        <v>23</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
-        <v>57</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3347,7 +3350,7 @@
         <v>88</v>
       </c>
       <c t="s" r="B91" s="7">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3355,17 +3358,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3373,7 +3376,7 @@
         <v>89</v>
       </c>
       <c t="s" r="B92" s="7">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3381,17 +3384,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3399,7 +3402,7 @@
         <v>90</v>
       </c>
       <c t="s" r="B93" s="7">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -3413,11 +3416,11 @@
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3425,7 +3428,7 @@
         <v>91</v>
       </c>
       <c t="s" r="B94" s="7">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -3433,17 +3436,17 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>125</v>
+        <v>9</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3451,7 +3454,7 @@
         <v>92</v>
       </c>
       <c t="s" r="B95" s="7">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -3459,17 +3462,17 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1">
@@ -3485,17 +3488,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>7.5</v>
+        <v>66</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
-        <v>65</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3503,7 +3506,7 @@
         <v>94</v>
       </c>
       <c t="s" r="B97" s="7">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -3511,17 +3514,17 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>48</v>
+        <v>7.5</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
-        <v>9</v>
+        <v>66</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
@@ -3543,11 +3546,11 @@
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>140</v>
+        <v>48</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" ht="24.75" customHeight="1">
@@ -3569,11 +3572,11 @@
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="25.5" customHeight="1">
@@ -3589,17 +3592,17 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>138</v>
+        <v>11</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>30</v>
+        <v>190</v>
       </c>
       <c r="M100" s="9"/>
       <c t="s" r="N100" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="24.75" customHeight="1">
@@ -3607,7 +3610,7 @@
         <v>98</v>
       </c>
       <c t="s" r="B101" s="7">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -3615,13 +3618,13 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M101" s="9"/>
       <c t="s" r="N101" s="7">
@@ -3633,7 +3636,7 @@
         <v>99</v>
       </c>
       <c t="s" r="B102" s="7">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -3641,13 +3644,13 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>9</v>
+        <v>141</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>285</v>
+        <v>45</v>
       </c>
       <c r="M102" s="9"/>
       <c t="s" r="N102" s="7">
@@ -3667,13 +3670,13 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>20</v>
+        <v>285</v>
       </c>
       <c r="M103" s="9"/>
       <c t="s" r="N103" s="7">
@@ -3693,17 +3696,17 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>144</v>
+        <v>60</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="M104" s="9"/>
       <c t="s" r="N104" s="7">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105" ht="25.5" customHeight="1">
@@ -3711,7 +3714,7 @@
         <v>102</v>
       </c>
       <c t="s" r="B105" s="7">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -3719,17 +3722,17 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>212</v>
+        <v>8</v>
       </c>
       <c r="M105" s="9"/>
       <c t="s" r="N105" s="7">
-        <v>147</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="24.75" customHeight="1">
@@ -3737,7 +3740,7 @@
         <v>103</v>
       </c>
       <c t="s" r="B106" s="7">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -3745,17 +3748,17 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>32</v>
+        <v>212</v>
       </c>
       <c r="M106" s="9"/>
       <c t="s" r="N106" s="7">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -3763,7 +3766,7 @@
         <v>104</v>
       </c>
       <c t="s" r="B107" s="7">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -3777,11 +3780,11 @@
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M107" s="9"/>
       <c t="s" r="N107" s="7">
-        <v>31</v>
+        <v>151</v>
       </c>
     </row>
     <row r="108" ht="25.5" customHeight="1">
@@ -3797,7 +3800,7 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c t="s" r="H108" s="8">
-        <v>65</v>
+        <v>151</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
@@ -3807,7 +3810,7 @@
       </c>
       <c r="M108" s="9"/>
       <c t="s" r="N108" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="24.75" customHeight="1">
@@ -3823,13 +3826,13 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>154</v>
+        <v>66</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M109" s="9"/>
       <c t="s" r="N109" s="7">
@@ -3841,7 +3844,7 @@
         <v>107</v>
       </c>
       <c t="s" r="B110" s="7">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -3849,17 +3852,17 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c t="s" r="H110" s="8">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M110" s="9"/>
       <c t="s" r="N110" s="7">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" ht="24.75" customHeight="1">
@@ -3875,17 +3878,17 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c t="s" r="H111" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M111" s="9"/>
       <c t="s" r="N111" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -3907,7 +3910,7 @@
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M112" s="9"/>
       <c t="s" r="N112" s="7">
@@ -3933,7 +3936,7 @@
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="M113" s="9"/>
       <c t="s" r="N113" s="7">
@@ -3953,13 +3956,13 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c t="s" r="H114" s="8">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="M114" s="9"/>
       <c t="s" r="N114" s="7">
@@ -3979,17 +3982,17 @@
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c t="s" r="H115" s="8">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="9">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="M115" s="9"/>
       <c t="s" r="N115" s="7">
-        <v>65</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116" ht="24.75" customHeight="1">
@@ -4005,17 +4008,17 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c t="s" r="H116" s="8">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="9">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M116" s="9"/>
       <c t="s" r="N116" s="7">
-        <v>9</v>
+        <v>66</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -4031,13 +4034,13 @@
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c t="s" r="H117" s="8">
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
       <c r="L117" s="9">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="M117" s="9"/>
       <c t="s" r="N117" s="7">
@@ -4045,37 +4048,63 @@
       </c>
     </row>
     <row r="118" ht="25.5" customHeight="1">
-      <c r="K118" s="10">
-        <v>8936.4799999999996</v>
-      </c>
-      <c r="L118" s="10"/>
-      <c r="M118" s="10"/>
-      <c r="N118" s="10"/>
-    </row>
-    <row r="119" ht="17.25" customHeight="1">
-      <c t="s" r="A119" s="11">
+      <c r="A118" s="6">
+        <v>115</v>
+      </c>
+      <c t="s" r="B118" s="7">
+        <v>163</v>
+      </c>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
+      <c t="s" r="H118" s="8">
         <v>164</v>
       </c>
-      <c r="B119" s="11"/>
-      <c r="C119" s="11"/>
-      <c r="D119" s="11"/>
-      <c r="E119" s="11"/>
-      <c t="s" r="F119" s="12">
+      <c r="I118" s="8"/>
+      <c r="J118" s="8"/>
+      <c r="K118" s="8"/>
+      <c r="L118" s="9">
+        <v>45</v>
+      </c>
+      <c r="M118" s="9"/>
+      <c t="s" r="N118" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="K119" s="10">
+        <v>8936.4699999999993</v>
+      </c>
+      <c r="L119" s="10"/>
+      <c r="M119" s="10"/>
+      <c r="N119" s="10"/>
+    </row>
+    <row r="120" ht="16.5" customHeight="1">
+      <c t="s" r="A120" s="11">
         <v>165</v>
       </c>
-      <c r="G119" s="12"/>
-      <c r="H119" s="13"/>
-      <c t="s" r="I119" s="14">
+      <c r="B120" s="11"/>
+      <c r="C120" s="11"/>
+      <c r="D120" s="11"/>
+      <c r="E120" s="11"/>
+      <c t="s" r="F120" s="12">
         <v>166</v>
       </c>
-      <c r="J119" s="14"/>
-      <c r="K119" s="14"/>
-      <c r="L119" s="14"/>
-      <c r="M119" s="14"/>
-      <c r="N119" s="14"/>
+      <c r="G120" s="12"/>
+      <c r="H120" s="13"/>
+      <c t="s" r="I120" s="14">
+        <v>167</v>
+      </c>
+      <c r="J120" s="14"/>
+      <c r="K120" s="14"/>
+      <c r="L120" s="14"/>
+      <c r="M120" s="14"/>
+      <c r="N120" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="353">
+  <mergeCells count="356">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4425,10 +4454,13 @@
     <mergeCell ref="B117:G117"/>
     <mergeCell ref="H117:K117"/>
     <mergeCell ref="L117:M117"/>
-    <mergeCell ref="K118:N118"/>
-    <mergeCell ref="A119:E119"/>
-    <mergeCell ref="F119:G119"/>
-    <mergeCell ref="I119:N119"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="K119:N119"/>
+    <mergeCell ref="A120:E120"/>
+    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="I120:N120"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
